--- a/Final_Project_Files/conversions.xlsx
+++ b/Final_Project_Files/conversions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mralc\Desktop\Final_Project_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mralc\COURSE_WORK\Project_3_CarData\Final_Project_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF57F16-1B03-4CEC-9EFA-B618BBD59C23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73BDF2-08C9-4D1F-8A05-978F4C4D825B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{66BF5E66-AFC0-4D23-BDF7-CB11612466CF}"/>
+    <workbookView xWindow="52680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66BF5E66-AFC0-4D23-BDF7-CB11612466CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,24 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
